--- a/docs/03_strategies/DCA_Conditional_Buy_LR_with_TrailingStop/Up_and_down/Binance_BTC-USDT_1w/trades.xlsx
+++ b/docs/03_strategies/DCA_Conditional_Buy_LR_with_TrailingStop/Up_and_down/Binance_BTC-USDT_1w/trades.xlsx
@@ -406,7 +406,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -446,354 +446,706 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2">
-        <v>233877</v>
+        <v>133996</v>
       </c>
       <c r="B2">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="D2">
-        <v>0.006779552779999999</v>
+        <v>0.007395818429999999</v>
       </c>
       <c r="E2">
-        <v>0.04766056634345809</v>
+        <v>0.008847543613465568</v>
       </c>
       <c r="F2">
-        <v>9561.128809180889</v>
+        <v>194.5253676836523</v>
       </c>
       <c r="G2">
-        <v>6.030045769989285</v>
+        <v>0.1962899978150989</v>
       </c>
       <c r="H2" s="2">
-        <v>43927</v>
+        <v>43829</v>
       </c>
       <c r="I2" s="2">
-        <v>44326</v>
+        <v>43885</v>
       </c>
       <c r="J2" s="3">
-        <v>399</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
-        <v>39753</v>
+        <v>168326</v>
       </c>
       <c r="B3">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="C3">
-        <v>108</v>
+        <v>43</v>
       </c>
       <c r="D3">
-        <v>0.03989012027</v>
+        <v>0.0058863805</v>
       </c>
       <c r="E3">
-        <v>0.04977213284925804</v>
+        <v>0.01129966615247247</v>
       </c>
       <c r="F3">
-        <v>392.8396460632449</v>
+        <v>911.1967207380802</v>
       </c>
       <c r="G3">
-        <v>0.2477308293976233</v>
+        <v>0.9196289048036337</v>
       </c>
       <c r="H3" s="2">
-        <v>44410</v>
+        <v>43920</v>
       </c>
       <c r="I3" s="2">
-        <v>44529</v>
+        <v>44074</v>
       </c>
       <c r="J3" s="3">
-        <v>119</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
-        <v>44769</v>
+        <v>91885</v>
       </c>
       <c r="B4">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="C4">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="D4">
-        <v>0.03541640101999999</v>
+        <v>0.01078503426</v>
       </c>
       <c r="E4">
-        <v>0.04977213284925804</v>
+        <v>0.05716871257704084</v>
       </c>
       <c r="F4">
-        <v>642.6917582640532</v>
+        <v>4261.964282161297</v>
       </c>
       <c r="G4">
-        <v>0.4053413507812726</v>
+        <v>4.300744642886358</v>
       </c>
       <c r="H4" s="2">
-        <v>44403</v>
+        <v>44102</v>
       </c>
       <c r="I4" s="2">
-        <v>44529</v>
+        <v>44298</v>
       </c>
       <c r="J4" s="3">
-        <v>126</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
-        <v>44889</v>
+        <v>90657</v>
       </c>
       <c r="B5">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="C5">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="D5">
-        <v>0.03532341812999999</v>
+        <v>0.01093120028</v>
       </c>
       <c r="E5">
-        <v>0.04977213284925804</v>
+        <v>0.05716871257704084</v>
       </c>
       <c r="F5">
-        <v>648.5883550327743</v>
+        <v>4191.754152312831</v>
       </c>
       <c r="G5">
-        <v>0.4090406728500271</v>
+        <v>4.229865990255266</v>
       </c>
       <c r="H5" s="2">
-        <v>44382</v>
+        <v>44095</v>
       </c>
       <c r="I5" s="2">
-        <v>44529</v>
+        <v>44298</v>
       </c>
       <c r="J5" s="3">
-        <v>147</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6">
-        <v>40593</v>
+        <v>24846</v>
       </c>
       <c r="B6">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C6">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D6">
-        <v>0.03905958055999999</v>
+        <v>0.03989012027</v>
       </c>
       <c r="E6">
-        <v>0.04977213284925804</v>
+        <v>0.04546379302257043</v>
       </c>
       <c r="F6">
-        <v>434.8546350778517</v>
+        <v>138.4834732103649</v>
       </c>
       <c r="G6">
-        <v>0.2742618362939748</v>
+        <v>0.1397256442157735</v>
       </c>
       <c r="H6" s="2">
-        <v>44361</v>
+        <v>44410</v>
       </c>
       <c r="I6" s="2">
-        <v>44529</v>
+        <v>44445</v>
       </c>
       <c r="J6" s="3">
-        <v>168</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7">
-        <v>44250</v>
+        <v>27981</v>
       </c>
       <c r="B7">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C7">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D7">
-        <v>0.03583210630999999</v>
+        <v>0.03541640101999999</v>
       </c>
       <c r="E7">
-        <v>0.04977213284925804</v>
+        <v>0.04546379302257043</v>
       </c>
       <c r="F7">
-        <v>616.8461743621683</v>
+        <v>281.1360756239233</v>
       </c>
       <c r="G7">
-        <v>0.3890373180592979</v>
+        <v>0.2836931961803959</v>
       </c>
       <c r="H7" s="2">
-        <v>44354</v>
+        <v>44403</v>
       </c>
       <c r="I7" s="2">
-        <v>44529</v>
+        <v>44445</v>
       </c>
       <c r="J7" s="3">
-        <v>175</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8">
-        <v>44442</v>
+        <v>25371</v>
       </c>
       <c r="B8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C8">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D8">
-        <v>0.03567690126</v>
+        <v>0.03905958055999999</v>
       </c>
       <c r="E8">
-        <v>0.04977213284925804</v>
+        <v>0.04546379302257043</v>
       </c>
       <c r="F8">
-        <v>626.4202822898058</v>
+        <v>162.4812743878744</v>
       </c>
       <c r="G8">
-        <v>0.3950800403470365</v>
+        <v>0.1639600930361458</v>
       </c>
       <c r="H8" s="2">
-        <v>44347</v>
+        <v>44361</v>
       </c>
       <c r="I8" s="2">
-        <v>44529</v>
+        <v>44445</v>
       </c>
       <c r="J8" s="3">
-        <v>182</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9">
-        <v>36775</v>
+        <v>27656</v>
       </c>
       <c r="B9">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="C9">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D9">
-        <v>0.04311473166</v>
+        <v>0.03583210630999999</v>
       </c>
       <c r="E9">
-        <v>0.04307166</v>
+        <v>0.04546379302257043</v>
       </c>
       <c r="F9">
-        <v>-1.583960296499919</v>
+        <v>266.3739277228479</v>
       </c>
       <c r="G9">
-        <v>-0.0009990009990009652</v>
+        <v>0.2688004614979174</v>
       </c>
       <c r="H9" s="2">
-        <v>44578</v>
+        <v>44354</v>
       </c>
       <c r="I9" s="2">
-        <v>44578</v>
+        <v>44445</v>
       </c>
       <c r="J9" s="3">
-        <v>0</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10">
-        <v>31196</v>
+        <v>18112</v>
       </c>
       <c r="B10">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C10">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D10">
-        <v>0.05082625548</v>
+        <v>0.05471366900999999</v>
       </c>
       <c r="E10">
-        <v>0.04307166</v>
+        <v>0.06169200115860862</v>
       </c>
       <c r="F10">
-        <v>-241.9123605940798</v>
+        <v>126.3915518755994</v>
       </c>
       <c r="G10">
-        <v>-0.1525706626775094</v>
+        <v>0.1275427562230051</v>
       </c>
       <c r="H10" s="2">
-        <v>44557</v>
+        <v>44480</v>
       </c>
       <c r="I10" s="2">
-        <v>44578</v>
+        <v>44515</v>
       </c>
       <c r="J10" s="3">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11">
-        <v>31645</v>
+        <v>20539</v>
       </c>
       <c r="B11">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C11">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D11">
-        <v>0.05010395389999999</v>
+        <v>0.04824821000999999</v>
       </c>
       <c r="E11">
-        <v>0.04307166</v>
+        <v>0.06169200115860862</v>
       </c>
       <c r="F11">
-        <v>-222.5369404654996</v>
+        <v>276.1220264012725</v>
       </c>
       <c r="G11">
-        <v>-0.1403540709389003</v>
+        <v>0.2786381328099476</v>
       </c>
       <c r="H11" s="2">
-        <v>44543</v>
+        <v>44473</v>
       </c>
       <c r="I11" s="2">
-        <v>44578</v>
+        <v>44515</v>
       </c>
       <c r="J11" s="3">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12">
-        <v>27197</v>
+        <v>19127</v>
       </c>
       <c r="B12">
+        <v>96</v>
+      </c>
+      <c r="C12">
+        <v>106</v>
+      </c>
+      <c r="D12">
+        <v>0.05180863687999999</v>
+      </c>
+      <c r="E12">
+        <v>0.06169200115860862</v>
+      </c>
+      <c r="F12">
+        <v>189.0391085569471</v>
+      </c>
+      <c r="G12">
+        <v>0.1907667306804584</v>
+      </c>
+      <c r="H12" s="2">
+        <v>44445</v>
+      </c>
+      <c r="I12" s="2">
+        <v>44515</v>
+      </c>
+      <c r="J12" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13">
+        <v>20105</v>
+      </c>
+      <c r="B13">
+        <v>94</v>
+      </c>
+      <c r="C13">
+        <v>106</v>
+      </c>
+      <c r="D13">
+        <v>0.04928845922</v>
+      </c>
+      <c r="E13">
+        <v>0.06169200115860862</v>
+      </c>
+      <c r="F13">
+        <v>249.3732106757263</v>
+      </c>
+      <c r="G13">
+        <v>0.2516520527299335</v>
+      </c>
+      <c r="H13" s="2">
+        <v>44431</v>
+      </c>
+      <c r="I13" s="2">
+        <v>44515</v>
+      </c>
+      <c r="J13" s="3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14">
+        <v>21075</v>
+      </c>
+      <c r="B14">
+        <v>93</v>
+      </c>
+      <c r="C14">
+        <v>106</v>
+      </c>
+      <c r="D14">
+        <v>0.04702079382</v>
+      </c>
+      <c r="E14">
+        <v>0.06169200115860862</v>
+      </c>
+      <c r="F14">
+        <v>309.1956946611766</v>
+      </c>
+      <c r="G14">
+        <v>0.3120153052875154</v>
+      </c>
+      <c r="H14" s="2">
+        <v>44424</v>
+      </c>
+      <c r="I14" s="2">
+        <v>44515</v>
+      </c>
+      <c r="J14" s="3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15">
+        <v>22605</v>
+      </c>
+      <c r="B15">
+        <v>92</v>
+      </c>
+      <c r="C15">
+        <v>106</v>
+      </c>
+      <c r="D15">
+        <v>0.04383815435999999</v>
+      </c>
+      <c r="E15">
+        <v>0.06169200115860862</v>
+      </c>
+      <c r="F15">
+        <v>403.5862068825479</v>
+      </c>
+      <c r="G15">
+        <v>0.4072673008081591</v>
+      </c>
+      <c r="H15" s="2">
+        <v>44417</v>
+      </c>
+      <c r="I15" s="2">
+        <v>44515</v>
+      </c>
+      <c r="J15" s="3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16">
+        <v>17497</v>
+      </c>
+      <c r="B16">
+        <v>78</v>
+      </c>
+      <c r="C16">
+        <v>106</v>
+      </c>
+      <c r="D16">
+        <v>0.05663478820999999</v>
+      </c>
+      <c r="E16">
+        <v>0.06169200115860862</v>
+      </c>
+      <c r="F16">
+        <v>88.48605496180515</v>
+      </c>
+      <c r="G16">
+        <v>0.08929516836642248</v>
+      </c>
+      <c r="H16" s="2">
+        <v>44319</v>
+      </c>
+      <c r="I16" s="2">
+        <v>44515</v>
+      </c>
+      <c r="J16" s="3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17">
+        <v>20936</v>
+      </c>
+      <c r="B17">
+        <v>113</v>
+      </c>
+      <c r="C17">
+        <v>115</v>
+      </c>
+      <c r="D17">
+        <v>0.04733346617999999</v>
+      </c>
+      <c r="E17">
+        <v>0.04307166</v>
+      </c>
+      <c r="F17">
+        <v>-89.22517418447973</v>
+      </c>
+      <c r="G17">
+        <v>-0.09003790603023165</v>
+      </c>
+      <c r="H17" s="2">
+        <v>44564</v>
+      </c>
+      <c r="I17" s="2">
+        <v>44578</v>
+      </c>
+      <c r="J17" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18">
+        <v>19497</v>
+      </c>
+      <c r="B18">
+        <v>112</v>
+      </c>
+      <c r="C18">
+        <v>115</v>
+      </c>
+      <c r="D18">
+        <v>0.05082625548</v>
+      </c>
+      <c r="E18">
+        <v>0.04307166</v>
+      </c>
+      <c r="F18">
+        <v>-151.1913480735599</v>
+      </c>
+      <c r="G18">
+        <v>-0.1525706626775094</v>
+      </c>
+      <c r="H18" s="2">
+        <v>44557</v>
+      </c>
+      <c r="I18" s="2">
+        <v>44578</v>
+      </c>
+      <c r="J18" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19">
+        <v>15110</v>
+      </c>
+      <c r="B19">
+        <v>106</v>
+      </c>
+      <c r="C19">
+        <v>115</v>
+      </c>
+      <c r="D19">
+        <v>0.06558462911</v>
+      </c>
+      <c r="E19">
+        <v>0.04307166</v>
+      </c>
+      <c r="F19">
+        <v>-340.1709632521</v>
+      </c>
+      <c r="G19">
+        <v>-0.3432659361729521</v>
+      </c>
+      <c r="H19" s="2">
+        <v>44515</v>
+      </c>
+      <c r="I19" s="2">
+        <v>44578</v>
+      </c>
+      <c r="J19" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20">
+        <v>16268</v>
+      </c>
+      <c r="B20">
+        <v>103</v>
+      </c>
+      <c r="C20">
+        <v>115</v>
+      </c>
+      <c r="D20">
+        <v>0.06091307221999999</v>
+      </c>
+      <c r="E20">
+        <v>0.04307166</v>
+      </c>
+      <c r="F20">
+        <v>-290.2440939949598</v>
+      </c>
+      <c r="G20">
+        <v>-0.2928995627664631</v>
+      </c>
+      <c r="H20" s="2">
+        <v>44494</v>
+      </c>
+      <c r="I20" s="2">
+        <v>44578</v>
+      </c>
+      <c r="J20" s="3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21">
+        <v>16090</v>
+      </c>
+      <c r="B21">
+        <v>102</v>
+      </c>
+      <c r="C21">
+        <v>115</v>
+      </c>
+      <c r="D21">
+        <v>0.06158984831999999</v>
+      </c>
+      <c r="E21">
+        <v>0.04307166</v>
+      </c>
+      <c r="F21">
+        <v>-297.9576500687998</v>
+      </c>
+      <c r="G21">
+        <v>-0.3006694905917896</v>
+      </c>
+      <c r="H21" s="2">
+        <v>44487</v>
+      </c>
+      <c r="I21" s="2">
+        <v>44578</v>
+      </c>
+      <c r="J21" s="3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22">
+        <v>16998</v>
+      </c>
+      <c r="B22">
         <v>79</v>
       </c>
-      <c r="C12">
+      <c r="C22">
         <v>115</v>
       </c>
-      <c r="D12">
+      <c r="D22">
         <v>0.05829907082999999</v>
       </c>
-      <c r="E12">
+      <c r="E22">
         <v>0.04307166</v>
       </c>
-      <c r="F12">
-        <v>-414.1398923435097</v>
-      </c>
-      <c r="G12">
+      <c r="F22">
+        <v>-258.8355292883398</v>
+      </c>
+      <c r="G22">
         <v>-0.2611947431272635</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H22" s="2">
         <v>44326</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I22" s="2">
         <v>44578</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J22" s="3">
         <v>252</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23">
+        <v>16499</v>
+      </c>
+      <c r="B23">
+        <v>75</v>
+      </c>
+      <c r="C23">
+        <v>115</v>
+      </c>
+      <c r="D23">
+        <v>0.0600587988</v>
+      </c>
+      <c r="E23">
+        <v>0.04307166</v>
+      </c>
+      <c r="F23">
+        <v>-280.2708030612</v>
+      </c>
+      <c r="G23">
+        <v>-0.2828418006921576</v>
+      </c>
+      <c r="H23" s="2">
+        <v>44298</v>
+      </c>
+      <c r="I23" s="2">
+        <v>44578</v>
+      </c>
+      <c r="J23" s="3">
+        <v>280</v>
       </c>
     </row>
   </sheetData>
